--- a/data/trans_bre/P25A_6_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_6_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,12 +652,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,25 +667,45 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-23,04%</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-12,55%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -668,32 +720,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,8</t>
+          <t>-1,22; 2,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,91</t>
+          <t>-1,82; 1,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,53</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 6,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -725,35 +797,55 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,67</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -773,27 +865,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,0</t>
+          <t>-2,86; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,0</t>
+          <t>-2,21; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 1,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -802,6 +894,26 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -825,37 +937,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,06</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-27,56%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>75,05%</t>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-21,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-34,61%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>391,09%</t>
         </is>
       </c>
     </row>
@@ -873,27 +1005,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,0</t>
+          <t>-2,44; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,8</t>
+          <t>-1,66; 0,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 66,96</t>
+          <t>-0,99; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 1,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -902,6 +1034,26 @@
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,73</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-39,25%</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-57,94%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-58,01%</t>
+          <t>-44,23%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-59,9%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-65,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-15,89%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-45,2%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,29</t>
+          <t>-2,1; 1,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,06</t>
+          <t>-3,11; 0,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 0,31</t>
+          <t>-3,16; 0,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,86; 15,91</t>
+          <t>-4,82; 0,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 1,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,76; 146,48</t>
+          <t>-2,9; 0,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 74,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 110,53</t>
+          <t>-92,69; 160,38</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 328,54</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-25,62%</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-32,09%</t>
+          <t>-37,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>-22,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-31,83%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-47,47%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-11,67%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,73</t>
+          <t>-5,18; 1,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,26</t>
+          <t>-3,78; 2,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 1,78</t>
+          <t>-7,46; 1,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 40,18</t>
+          <t>-3,67; 4,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-79,71; 97,57</t>
+          <t>-7,08; 1,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-77,16; 202,81</t>
+          <t>-6,9; 3,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-82,16; 80,88</t>
+          <t>-81,05; 110,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 217,12</t>
+          <t>-78,68; 125,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-83,93; 59,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-69,79; 261,63</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-83,55; 51,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-85,05; 154,08</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,46</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>108,63%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>98,69%</t>
+          <t>29,2%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>123,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>126,87%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-16,52%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>57,73%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,33</t>
+          <t>-6,81; 5,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 6,56</t>
+          <t>-3,66; 6,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 10,31</t>
+          <t>0,42; 12,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 44,16</t>
+          <t>-0,79; 11,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,26; 110,51</t>
+          <t>-7,97; 5,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 156,08</t>
+          <t>-3,17; 11,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 382,16</t>
+          <t>-52,59; 109,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 483,08</t>
+          <t>-39,24; 153,44</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 515,77</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-29,22; 678,91</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-70,01; 112,93</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-34,67; 261,43</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39,87%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>78,33%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-10,18%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68,6%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,26</t>
+          <t>-1,15; 1,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,33</t>
+          <t>-0,93; 1,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,96</t>
+          <t>-0,49; 2,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 32,31</t>
+          <t>0,02; 3,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 76,54</t>
+          <t>-1,69; 1,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 82,0</t>
+          <t>-0,19; 3,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 137,17</t>
+          <t>-40,06; 78,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 170,18</t>
+          <t>-34,86; 71,87</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-25,71; 158,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 247,53</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-48,64; 65,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 196,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
